--- a/Code/Portfolio Account NAV.xlsx
+++ b/Code/Portfolio Account NAV.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -472,10 +476,8 @@
 (Net)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2021/02/04</t>
-        </is>
+      <c r="C2" s="2" t="n">
+        <v>44231</v>
       </c>
       <c r="D2" t="n">
         <v>1286.961641823181</v>

--- a/Code/Portfolio Account NAV.xlsx
+++ b/Code/Portfolio Account NAV.xlsx
@@ -455,7 +455,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>NAV/Share</t>
+          <t>NAV</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
